--- a/SPMT_Email.xlsx
+++ b/SPMT_Email.xlsx
@@ -481,7 +481,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,13 +501,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -674,32 +667,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1050,146 +1043,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,17 +1222,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,14 +1244,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1614,15 +1607,16 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.1230769230769" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="4" width="11" style="8"/>
+    <col min="3" max="3" width="11" style="8"/>
+    <col min="4" max="4" width="8.15384615384615" style="8" customWidth="1"/>
     <col min="5" max="5" width="108.123076923077" style="9" customWidth="1"/>
     <col min="6" max="6" width="31" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.8769230769231" style="10" customWidth="1"/>

--- a/SPMT_Email.xlsx
+++ b/SPMT_Email.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
     <sheet name="Include Prof.Sui" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overall!$A$1:$H$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>Note</t>
   </si>
@@ -202,7 +205,7 @@
     <t xml:space="preserve">Feldborg, M., Lee, N. A., Hung, K., Peng, K., &amp; Sui, J. (2021). Perceiving the self and emotions with an anxious mind: evidence from an implicit perceptual task. International Journal of Environmental Research and Public Health, 18(22), 12096. </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ok</t>
   </si>
   <si>
     <t>Kalai Hung</t>
@@ -667,26 +670,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,8 +677,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +707,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -716,6 +725,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -891,12 +906,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1071,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,16 +1095,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1104,89 +1113,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,11 +1210,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1225,8 +1234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,23 +1247,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1604,11 +1616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="53" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="7"/>
@@ -1658,14 +1670,14 @@
       <c r="D2" s="16">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1674,20 +1686,20 @@
         <v>11</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="18">
+      <c r="C3" s="19">
         <v>44</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>44</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1696,22 +1708,22 @@
         <v>15</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="18">
+      <c r="C4" s="19">
         <v>19</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="19">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1720,105 +1732,119 @@
         <v>20</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>34</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+    <row r="6" ht="31" spans="2:8">
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" ht="31" spans="2:8">
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="21"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="31" spans="2:8">
       <c r="B8" s="4"/>
-      <c r="C8" s="20">
-        <v>2</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
+      <c r="C8" s="23">
+        <v>3</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="31" spans="2:8">
+        <v>36</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="31" hidden="1" spans="2:8">
       <c r="B9" s="4"/>
-      <c r="C9" s="22">
-        <v>3</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="C9" s="23">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="31" spans="2:8">
+        <v>40</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="31" hidden="1" spans="2:8">
       <c r="B10" s="4"/>
-      <c r="C10" s="22">
-        <v>4</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="21"/>
+      <c r="C10" s="23">
+        <v>5</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>40</v>
       </c>
@@ -1826,18 +1852,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="31" spans="2:8">
+    <row r="11" hidden="1" spans="2:8">
       <c r="B11" s="4"/>
-      <c r="C11" s="22">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>41</v>
+      <c r="C11" s="23">
+        <v>6</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="11" t="s">
         <v>40</v>
       </c>
@@ -1847,232 +1875,238 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="4"/>
-      <c r="C12" s="22">
-        <v>6</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="21"/>
+      <c r="C12" s="21">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="31" hidden="1" spans="2:8">
+      <c r="B13" s="4"/>
+      <c r="C13" s="23">
+        <v>8</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="20">
-        <v>7</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" ht="31" spans="2:8">
-      <c r="B14" s="4"/>
-      <c r="C14" s="22">
-        <v>8</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="21"/>
+    <row r="14" spans="2:8">
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="16">
+        <v>9</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="22"/>
       <c r="G14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" ht="31" spans="2:8">
+      <c r="B15" s="4"/>
+      <c r="C15" s="21">
+        <v>10</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="2:8">
+      <c r="B16" s="4"/>
+      <c r="C16" s="23">
+        <v>11</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="16">
-        <v>9</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" ht="31" spans="2:8">
-      <c r="B16" s="4"/>
-      <c r="C16" s="20">
-        <v>10</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+    <row r="17" ht="31" spans="2:8">
       <c r="B17" s="4"/>
-      <c r="C17" s="22">
-        <v>11</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="21"/>
+      <c r="C17" s="21">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="22"/>
       <c r="G17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="31" spans="2:8">
       <c r="B18" s="4"/>
-      <c r="C18" s="20">
-        <v>12</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" ht="31" spans="2:8">
+      <c r="C18" s="21">
+        <v>13</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="2:8">
       <c r="B19" s="4"/>
-      <c r="C19" s="20">
-        <v>13</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="4"/>
-      <c r="C20" s="22">
+      <c r="C19" s="23">
         <v>14</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="11" t="s">
+      <c r="F19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="20" ht="31" spans="2:8">
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="21">
+        <v>15</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="21" ht="31" spans="2:8">
-      <c r="B21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="20">
-        <v>15</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="21"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="21">
+        <v>16</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" ht="31" spans="2:8">
-      <c r="B22" s="3"/>
-      <c r="C22" s="20">
-        <v>16</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" ht="31" hidden="1" spans="2:8">
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="19">
+        <v>17</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" ht="31" spans="2:8">
-      <c r="B23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="18">
-        <v>17</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" ht="31" hidden="1" spans="2:8">
+      <c r="B23" s="3"/>
+      <c r="C23" s="19">
+        <v>18</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>40</v>
@@ -2081,19 +2115,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" ht="31" spans="2:8">
+    <row r="24" ht="31" hidden="1" spans="2:8">
       <c r="B24" s="3"/>
-      <c r="C24" s="18">
-        <v>18</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>84</v>
+      <c r="C24" s="19">
+        <v>19</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>40</v>
@@ -2102,19 +2136,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" ht="31" spans="2:8">
+    <row r="25" ht="46.5" hidden="1" spans="2:8">
       <c r="B25" s="3"/>
-      <c r="C25" s="18">
-        <v>19</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>87</v>
+      <c r="C25" s="19">
+        <v>20</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>40</v>
@@ -2123,19 +2157,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="46.5" spans="2:8">
+    <row r="26" ht="31" hidden="1" spans="2:8">
       <c r="B26" s="3"/>
-      <c r="C26" s="18">
-        <v>20</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>92</v>
+      <c r="C26" s="19">
+        <v>21</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>40</v>
@@ -2145,136 +2179,141 @@
       </c>
     </row>
     <row r="27" ht="31" spans="2:8">
-      <c r="B27" s="3"/>
-      <c r="C27" s="18">
-        <v>21</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>93</v>
+      <c r="B27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="21">
+        <v>22</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>95</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F27" s="22"/>
       <c r="G27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="3"/>
+      <c r="C28" s="26">
+        <v>23</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" ht="31" hidden="1" spans="2:8">
+      <c r="B29" s="3"/>
+      <c r="C29" s="23">
+        <v>24</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" ht="31" spans="2:8">
-      <c r="B28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="20">
-        <v>22</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="3"/>
-      <c r="C29" s="25">
-        <v>23</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="30" ht="31" spans="2:8">
-      <c r="B30" s="3"/>
-      <c r="C30" s="22">
-        <v>24</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="21"/>
+      <c r="B30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="21">
+        <v>25</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="22"/>
       <c r="G30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" ht="31" spans="2:8">
-      <c r="B31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="20">
-        <v>25</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H30" s="18" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H30" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="M.E. Moses-Payne"/>
+        <filter val="Víctor Martínez-Pérez"/>
+        <filter val="Aviva Berkovich-Ohana"/>
+        <filter val="Ivar R. Kolvoort"/>
+        <filter val="NA"/>
+        <filter val="Sarah Schäfer"/>
+        <filter val="Kelsey Perrykkad"/>
+        <filter val="Kalai Hung"/>
+        <filter val="Wenjie Li"/>
+        <filter val="Henryk Bukowski"/>
+        <filter val="Mateusz Woźniak"/>
+        <filter val="Letizia Amodeo"/>
+        <filter val="Ark Verma"/>
+        <filter val="Chia-huei Tseng"/>
+        <filter val="Divita Singh"/>
+        <filter val="Hyunji Kim"/>
+        <filter val="Yingcan Zheng&#10;Zilun Xiao"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <mergeCells count="5">
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E28">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E1048576 E1:E28">
+  <conditionalFormatting sqref="E1:E27 E29:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
-    <hyperlink ref="F27" r:id="rId2" display="https://osf.io/fe3jw/"/>
-    <hyperlink ref="H7" r:id="rId3" display="letizia.amodeo@ugent.be"/>
-    <hyperlink ref="H8" r:id="rId4" display="liwenjiepsy@163.com"/>
-    <hyperlink ref="H13" r:id="rId5" display="divita.singh@ahduni.edu.in"/>
-    <hyperlink ref="H31" r:id="rId6" display="mgwozniak@gmail.com"/>
-    <hyperlink ref="H28" r:id="rId7" display="kelsey.perrykkad@monash.edu"/>
-    <hyperlink ref="H22" r:id="rId8" display="zhengyc@tmmu.edu.cn&#10;xiaoziluen@hotmail.com"/>
-    <hyperlink ref="H21" r:id="rId9" display="m.payne@ucl.ac.uk"/>
-    <hyperlink ref="H19" r:id="rId10" display="arkverma@iitk.ac.in"/>
-    <hyperlink ref="H18" r:id="rId11" display="hyunji.kim@uinvie.ac.at"/>
-    <hyperlink ref="H9" r:id="rId12" display="hongjl18@mails.tsinghua.edu.cn"/>
-    <hyperlink ref="H16" r:id="rId13" display="avivabo@edu.haifa.ac.il"/>
-    <hyperlink ref="F26" r:id="rId14" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="H29" r:id="rId15" display="schaefers@uni-trier.de"/>
+    <hyperlink ref="F22" r:id="rId1" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
+    <hyperlink ref="F26" r:id="rId2" display="https://osf.io/fe3jw/"/>
+    <hyperlink ref="H6" r:id="rId3" display="letizia.amodeo@ugent.be"/>
+    <hyperlink ref="H7" r:id="rId4" display="liwenjiepsy@163.com"/>
+    <hyperlink ref="H12" r:id="rId5" display="divita.singh@ahduni.edu.in"/>
+    <hyperlink ref="H30" r:id="rId6" display="mgwozniak@gmail.com"/>
+    <hyperlink ref="H27" r:id="rId7" display="kelsey.perrykkad@monash.edu"/>
+    <hyperlink ref="H21" r:id="rId8" display="zhengyc@tmmu.edu.cn&#10;xiaoziluen@hotmail.com"/>
+    <hyperlink ref="H20" r:id="rId9" display="m.payne@ucl.ac.uk"/>
+    <hyperlink ref="H18" r:id="rId10" display="arkverma@iitk.ac.in"/>
+    <hyperlink ref="H17" r:id="rId11" display="hyunji.kim@uinvie.ac.at"/>
+    <hyperlink ref="H8" r:id="rId12" display="hongjl18@mails.tsinghua.edu.cn"/>
+    <hyperlink ref="H15" r:id="rId13" display="avivabo@edu.haifa.ac.il"/>
+    <hyperlink ref="F25" r:id="rId14" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="H28" r:id="rId15" display="schaefers@uni-trier.de"/>
     <hyperlink ref="F4" r:id="rId16" display="https://osf.io/pcv3u/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2289,7 +2328,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -2323,16 +2362,16 @@
       <c r="B3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" ht="46.5" spans="1:3">
       <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2341,7 +2380,7 @@
       <c r="B5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2352,7 +2391,7 @@
       <c r="B6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2361,7 +2400,7 @@
       <c r="B7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>70</v>
       </c>
     </row>

--- a/SPMT_Email.xlsx
+++ b/SPMT_Email.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Include Prof.Sui" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overall!$A$1:$H$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overall!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
   <si>
     <t>Note</t>
   </si>
@@ -54,85 +54,6 @@
     <t>Corre email</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>×trial data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-(personal information)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Cheng, M., &amp; Tseng, C. H. (2019). Saliency at first sight: instant identity referential advantage toward a newly met partner. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Cognitive research: principles and implications</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, 1-18.</t>
-    </r>
-  </si>
-  <si>
-    <t>Chia-huei Tseng</t>
-  </si>
-  <si>
-    <t>tsengtohoku@gmail.com</t>
-  </si>
-  <si>
     <t>forget</t>
   </si>
   <si>
@@ -251,18 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sui, J., He, X., Golubickis, M., Svensson, S. L., &amp; Macrae, C. N. (2023). Electrophysiological correlates of self-prioritization. Consciousness and Cognition, 108, 103475. </t>
-  </si>
-  <si>
-    <t>No statement</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>Chen, A. Y. (2022). The Effects of a Joint Setting on Self-Prioritization Effect. Student Thesis</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>t20</t>
@@ -473,6 +382,9 @@
   <si>
     <t>co-correspondence</t>
   </si>
+  <si>
+    <t>No statement</t>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +396,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,6 +434,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -670,35 +588,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,12 +611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,150 +943,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1231,39 +1122,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1616,11 +1504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H30"/>
+  <sheetPr/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="53" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="53" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="7"/>
@@ -1659,662 +1547,598 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="46.5" spans="1:8">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="16">
-        <v>3</v>
-      </c>
-      <c r="D2" s="16">
-        <v>3</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="15">
+        <v>44</v>
+      </c>
+      <c r="D2" s="15">
+        <v>44</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="46.5" spans="1:8">
+    <row r="3" ht="31" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="19">
-        <v>44</v>
-      </c>
-      <c r="D3" s="19">
-        <v>44</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="15">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="18" t="s">
         <v>14</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="31" spans="1:8">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="19">
-        <v>19</v>
-      </c>
-      <c r="D4" s="19">
-        <v>19</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="15">
+        <v>34</v>
+      </c>
+      <c r="D4" s="15">
+        <v>34</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="31" spans="1:8">
-      <c r="A5" t="s">
+    <row r="5" ht="31" spans="2:8">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="19">
-        <v>34</v>
-      </c>
-      <c r="D5" s="19">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="21"/>
       <c r="G5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="H5" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" ht="31" spans="2:8">
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="20">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" ht="31" spans="2:8">
       <c r="B7" s="4"/>
-      <c r="C7" s="21">
-        <v>2</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="22">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="18" t="s">
         <v>32</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="31" spans="2:8">
       <c r="B8" s="4"/>
-      <c r="C8" s="23">
-        <v>3</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="22">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="F8" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="31" spans="2:8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="22">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" ht="31" hidden="1" spans="2:8">
-      <c r="B9" s="4"/>
-      <c r="C9" s="23">
-        <v>4</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="4"/>
+      <c r="C10" s="22">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" ht="31" hidden="1" spans="2:8">
-      <c r="B10" s="4"/>
-      <c r="C10" s="23">
-        <v>5</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="F10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="4"/>
+      <c r="C11" s="20">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="2:8">
-      <c r="B11" s="4"/>
-      <c r="C11" s="23">
-        <v>6</v>
-      </c>
-      <c r="D11" s="23" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="H11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+    </row>
+    <row r="12" ht="31" spans="2:8">
       <c r="B12" s="4"/>
-      <c r="C12" s="21">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="22">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="31" spans="2:8">
+      <c r="B13" s="4"/>
+      <c r="C13" s="20">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" ht="31" hidden="1" spans="2:8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="23">
-        <v>8</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="H13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="22">
+        <v>11</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="16">
-        <v>9</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="31" spans="2:8">
       <c r="B15" s="4"/>
-      <c r="C15" s="21">
-        <v>10</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="20">
+        <v>12</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="H15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="11" t="s">
+    </row>
+    <row r="16" ht="31" spans="2:8">
+      <c r="B16" s="4"/>
+      <c r="C16" s="20">
+        <v>13</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="E16" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" hidden="1" spans="2:8">
-      <c r="B16" s="4"/>
-      <c r="C16" s="23">
-        <v>11</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="H16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="31" spans="2:8">
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="4"/>
-      <c r="C17" s="21">
-        <v>12</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="22">
+        <v>14</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" ht="31" spans="2:8">
+      <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="C18" s="20">
+        <v>15</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" ht="31" spans="2:8">
-      <c r="B18" s="4"/>
-      <c r="C18" s="21">
-        <v>13</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="24" t="s">
+    </row>
+    <row r="19" ht="31" spans="2:8">
+      <c r="B19" s="3"/>
+      <c r="C19" s="20">
+        <v>16</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" hidden="1" spans="2:8">
-      <c r="B19" s="4"/>
-      <c r="C19" s="23">
-        <v>14</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>40</v>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="31" spans="2:8">
       <c r="B20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="21">
-        <v>15</v>
-      </c>
-      <c r="D20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="C20" s="15">
+        <v>17</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="5" t="s">
+      <c r="E20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="F20" s="24" t="s">
         <v>75</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="31" spans="2:8">
       <c r="B21" s="3"/>
-      <c r="C21" s="21">
-        <v>16</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="15">
+        <v>18</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" ht="31" spans="2:8">
+      <c r="B22" s="3"/>
+      <c r="C22" s="15">
+        <v>19</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" ht="31" hidden="1" spans="2:8">
-      <c r="B22" s="3" t="s">
+      <c r="E22" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="19">
-        <v>17</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="F22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="46.5" spans="2:8">
+      <c r="B23" s="3"/>
+      <c r="C23" s="15">
+        <v>20</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="E23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" ht="31" hidden="1" spans="2:8">
-      <c r="B23" s="3"/>
-      <c r="C23" s="19">
-        <v>18</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="G23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" ht="31" spans="2:8">
+      <c r="B24" s="3"/>
+      <c r="C24" s="15">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="E24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" ht="31" hidden="1" spans="2:8">
-      <c r="B24" s="3"/>
-      <c r="C24" s="19">
-        <v>19</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="F24" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="G24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" ht="31" spans="2:8">
+      <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="C25" s="20">
+        <v>22</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" ht="46.5" hidden="1" spans="2:8">
-      <c r="B25" s="3"/>
-      <c r="C25" s="19">
-        <v>20</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="21"/>
+      <c r="G25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="H25" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" ht="31" hidden="1" spans="2:8">
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="3"/>
-      <c r="C26" s="19">
-        <v>21</v>
-      </c>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="25">
+        <v>23</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>40</v>
+      <c r="H26" s="23" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" ht="31" spans="2:8">
-      <c r="B27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="21">
-        <v>22</v>
-      </c>
-      <c r="D27" s="21" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="22">
+        <v>24</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="G27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" ht="31" spans="2:8">
+      <c r="B28" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="C28" s="20">
+        <v>25</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="3"/>
-      <c r="C28" s="26">
-        <v>23</v>
-      </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="21"/>
+      <c r="G28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" ht="31" hidden="1" spans="2:8">
-      <c r="B29" s="3"/>
-      <c r="C29" s="23">
-        <v>24</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" ht="31" spans="2:8">
-      <c r="B30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="21">
-        <v>25</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H30" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="M.E. Moses-Payne"/>
-        <filter val="Víctor Martínez-Pérez"/>
-        <filter val="Aviva Berkovich-Ohana"/>
-        <filter val="Ivar R. Kolvoort"/>
-        <filter val="NA"/>
-        <filter val="Sarah Schäfer"/>
-        <filter val="Kelsey Perrykkad"/>
-        <filter val="Kalai Hung"/>
-        <filter val="Wenjie Li"/>
-        <filter val="Henryk Bukowski"/>
-        <filter val="Mateusz Woźniak"/>
-        <filter val="Letizia Amodeo"/>
-        <filter val="Ark Verma"/>
-        <filter val="Chia-huei Tseng"/>
-        <filter val="Divita Singh"/>
-        <filter val="Hyunji Kim"/>
-        <filter val="Yingcan Zheng&#10;Zilun Xiao"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H28" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="5">
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E26">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E27 E29:E1048576">
+  <conditionalFormatting sqref="E1:E25 E27:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
-    <hyperlink ref="F26" r:id="rId2" display="https://osf.io/fe3jw/"/>
-    <hyperlink ref="H6" r:id="rId3" display="letizia.amodeo@ugent.be"/>
-    <hyperlink ref="H7" r:id="rId4" display="liwenjiepsy@163.com"/>
-    <hyperlink ref="H12" r:id="rId5" display="divita.singh@ahduni.edu.in"/>
-    <hyperlink ref="H30" r:id="rId6" display="mgwozniak@gmail.com"/>
-    <hyperlink ref="H27" r:id="rId7" display="kelsey.perrykkad@monash.edu"/>
-    <hyperlink ref="H21" r:id="rId8" display="zhengyc@tmmu.edu.cn&#10;xiaoziluen@hotmail.com"/>
-    <hyperlink ref="H20" r:id="rId9" display="m.payne@ucl.ac.uk"/>
-    <hyperlink ref="H18" r:id="rId10" display="arkverma@iitk.ac.in"/>
-    <hyperlink ref="H17" r:id="rId11" display="hyunji.kim@uinvie.ac.at"/>
-    <hyperlink ref="H8" r:id="rId12" display="hongjl18@mails.tsinghua.edu.cn"/>
-    <hyperlink ref="H15" r:id="rId13" display="avivabo@edu.haifa.ac.il"/>
-    <hyperlink ref="F25" r:id="rId14" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="H28" r:id="rId15" display="schaefers@uni-trier.de"/>
-    <hyperlink ref="F4" r:id="rId16" display="https://osf.io/pcv3u/"/>
+    <hyperlink ref="F20" r:id="rId1" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
+    <hyperlink ref="F24" r:id="rId2" display="https://osf.io/fe3jw/"/>
+    <hyperlink ref="H5" r:id="rId3" display="letizia.amodeo@ugent.be"/>
+    <hyperlink ref="H6" r:id="rId4" display="liwenjiepsy@163.com"/>
+    <hyperlink ref="H11" r:id="rId5" display="divita.singh@ahduni.edu.in"/>
+    <hyperlink ref="H28" r:id="rId6" display="mgwozniak@gmail.com"/>
+    <hyperlink ref="H25" r:id="rId7" display="kelsey.perrykkad@monash.edu"/>
+    <hyperlink ref="H19" r:id="rId8" display="zhengyc@tmmu.edu.cn&#10;xiaoziluen@hotmail.com"/>
+    <hyperlink ref="H18" r:id="rId9" display="m.payne@ucl.ac.uk"/>
+    <hyperlink ref="H16" r:id="rId10" display="arkverma@iitk.ac.in"/>
+    <hyperlink ref="H15" r:id="rId11" display="hyunji.kim@uinvie.ac.at"/>
+    <hyperlink ref="H7" r:id="rId12" display="hongjl18@mails.tsinghua.edu.cn"/>
+    <hyperlink ref="H13" r:id="rId13" display="avivabo@edu.haifa.ac.il"/>
+    <hyperlink ref="F23" r:id="rId14" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="H26" r:id="rId15" display="schaefers@uni-trier.de"/>
+    <hyperlink ref="F3" r:id="rId16" display="https://osf.io/pcv3u/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2340,7 +2164,7 @@
     <row r="1" spans="1:3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -2348,71 +2172,71 @@
     </row>
     <row r="2" ht="46.5" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="31" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="46.5" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="31" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="31" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="63.95" customHeight="1" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/SPMT_Email.xlsx
+++ b/SPMT_Email.xlsx
@@ -421,6 +421,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -428,13 +435,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -958,7 +958,7 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,7 +1086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,16 +1125,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1144,8 +1148,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,8 +1510,8 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="53" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="53" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="7"/>
@@ -1555,17 +1558,17 @@
       <c r="C2" s="15">
         <v>44</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>44</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1577,19 +1580,19 @@
       <c r="C3" s="15">
         <v>19</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>19</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1604,14 +1607,14 @@
       <c r="D4" s="15">
         <v>34</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1619,75 +1622,75 @@
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="31" spans="2:8">
       <c r="B6" s="4"/>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" ht="31" spans="2:8">
       <c r="B7" s="4"/>
-      <c r="C7" s="22">
+      <c r="C7" s="24">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" ht="31" spans="2:8">
       <c r="B8" s="4"/>
-      <c r="C8" s="22">
+      <c r="C8" s="24">
         <v>4</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -1699,16 +1702,16 @@
     </row>
     <row r="9" ht="31" spans="2:8">
       <c r="B9" s="4"/>
-      <c r="C9" s="22">
+      <c r="C9" s="24">
         <v>5</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -1720,16 +1723,16 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="4"/>
-      <c r="C10" s="22">
+      <c r="C10" s="24">
         <v>6</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -1741,35 +1744,35 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="4"/>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <v>7</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="31" spans="2:8">
       <c r="B12" s="4"/>
-      <c r="C12" s="22">
+      <c r="C12" s="24">
         <v>8</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="11" t="s">
         <v>36</v>
       </c>
@@ -1779,35 +1782,35 @@
     </row>
     <row r="13" ht="31" spans="2:8">
       <c r="B13" s="4"/>
-      <c r="C13" s="20">
+      <c r="C13" s="22">
         <v>10</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="4"/>
-      <c r="C14" s="22">
+      <c r="C14" s="24">
         <v>11</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -1819,54 +1822,54 @@
     </row>
     <row r="15" ht="31" spans="2:8">
       <c r="B15" s="4"/>
-      <c r="C15" s="20">
+      <c r="C15" s="22">
         <v>12</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" ht="31" spans="2:8">
       <c r="B16" s="4"/>
-      <c r="C16" s="20">
+      <c r="C16" s="22">
         <v>13</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4"/>
-      <c r="C17" s="22">
+      <c r="C17" s="24">
         <v>14</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -1880,39 +1883,39 @@
       <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="22">
         <v>15</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" ht="31" spans="2:8">
       <c r="B19" s="3"/>
-      <c r="C19" s="20">
+      <c r="C19" s="22">
         <v>16</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="25" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1926,10 +1929,10 @@
       <c r="D20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -1947,7 +1950,7 @@
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>77</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1968,7 +1971,7 @@
       <c r="D22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>80</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -1989,10 +1992,10 @@
       <c r="D23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="19" t="s">
         <v>84</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -2010,10 +2013,10 @@
       <c r="D24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>87</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -2027,54 +2030,54 @@
       <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="22">
         <v>22</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="3"/>
-      <c r="C26" s="25">
+      <c r="C26" s="26">
         <v>23</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>94</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" ht="31" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="22">
+      <c r="C27" s="24">
         <v>24</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -2088,20 +2091,20 @@
       <c r="B28" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="22">
         <v>25</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="21" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2139,6 +2142,8 @@
     <hyperlink ref="F23" r:id="rId14" display="https://osf.io/cj7fp/"/>
     <hyperlink ref="H26" r:id="rId15" display="schaefers@uni-trier.de"/>
     <hyperlink ref="F3" r:id="rId16" display="https://osf.io/pcv3u/"/>
+    <hyperlink ref="H3" r:id="rId17" display="hbbukowski@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId18" display="victor.martinez5@um.es" tooltip="mailto:victor.martinez5@um.es"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
